--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-200550.6900807486</v>
+        <v>-202898.8389639392</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5860219.813005072</v>
+        <v>5860219.813005075</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>49.65075760415525</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.91743199191124</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>135.1787052649172</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.6064608052456</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>54.87416669520763</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>213.2545877653091</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>13.80890171427166</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>318.0290254674032</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>156.0582739785054</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>9.790440613649634</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I11" t="n">
-        <v>59.02800318540972</v>
+        <v>59.02800318540977</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>91.93595037119255</v>
       </c>
       <c r="I12" t="n">
-        <v>17.03013564767497</v>
+        <v>17.03013564767498</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>79.43791333870315</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2288547737337</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.5602830177928</v>
+        <v>29.07744777523488</v>
       </c>
       <c r="I13" t="n">
-        <v>102.4585828702528</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>98.06186232216683</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.4165116571834</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I14" t="n">
-        <v>59.02800318540986</v>
+        <v>59.02800318540977</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H15" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119255</v>
       </c>
       <c r="I15" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767498</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.72034305214308</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2288547737337</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.4165116571834</v>
       </c>
       <c r="U16" t="n">
         <v>286.2229134700513</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>42.27406501844454</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I17" t="n">
-        <v>59.02800318541028</v>
+        <v>59.02800318540977</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H18" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119255</v>
       </c>
       <c r="I18" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767498</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>21.16814868041653</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2288547737337</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>146.5602830177929</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.06186232216687</v>
+        <v>98.06186232216683</v>
       </c>
       <c r="S19" t="n">
-        <v>193.307572319536</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T19" t="n">
         <v>220.4165116571834</v>
@@ -2059,16 +2059,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>59.18207046653839</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I20" t="n">
-        <v>59.02800318540986</v>
+        <v>59.02800318540977</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H21" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119255</v>
       </c>
       <c r="I21" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767498</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2288547737337</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.06186232216687</v>
+        <v>35.14906298150277</v>
       </c>
       <c r="S22" t="n">
-        <v>193.307572319536</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.4165116571834</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.0301757279079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I23" t="n">
-        <v>59.02800318540986</v>
+        <v>59.02800318540977</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H24" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119255</v>
       </c>
       <c r="I24" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767498</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>19.677897782538</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>146.5602830177929</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>182.4019693095224</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>127.8051165578013</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.2687961020399</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2770,13 +2770,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.38006817584793</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796249</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.380068175848042</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29755730378679</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996202</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797667</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433874</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572828</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1348.719328075852</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C2" t="n">
-        <v>979.7568111354399</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D2" t="n">
-        <v>979.7568111354399</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>979.7568111354399</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X2" t="n">
-        <v>1738.858660051663</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y2" t="n">
-        <v>1348.719328075852</v>
+        <v>1618.50539369077</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C4" t="n">
-        <v>325.6879402326643</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D4" t="n">
-        <v>325.6879402326643</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="E4" t="n">
-        <v>325.6879402326643</v>
+        <v>190.4871285526041</v>
       </c>
       <c r="F4" t="n">
-        <v>178.797992734754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>178.797992734754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>178.797992734754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1542.779601230298</v>
+        <v>1073.534970481816</v>
       </c>
       <c r="C5" t="n">
-        <v>1173.817084289886</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>815.5513856831358</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>429.7631330848915</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>422.8176323356881</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.779601230298</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y5" t="n">
-        <v>1542.779601230298</v>
+        <v>1073.534970481816</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,7 +4656,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4744,22 +4744,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>536.6170209242687</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
         <v>281.9325327183818</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.921096014692</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.95857907428</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.95857907428</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1703264760358</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1844216864283</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014692</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="X8" t="n">
-        <v>1540.921096014692</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="Y8" t="n">
-        <v>1540.921096014692</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69838933464703</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4996,16 +4996,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>718.2396502532528</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5027,37 +5027,37 @@
         <v>1284.685933815298</v>
       </c>
       <c r="F11" t="n">
-        <v>873.7000290256899</v>
+        <v>873.7000290256901</v>
       </c>
       <c r="G11" t="n">
-        <v>458.170349199944</v>
+        <v>458.1703491999442</v>
       </c>
       <c r="H11" t="n">
-        <v>155.9041454432205</v>
+        <v>155.9041454432206</v>
       </c>
       <c r="I11" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J11" t="n">
-        <v>247.1244892489112</v>
+        <v>247.1244892489111</v>
       </c>
       <c r="K11" t="n">
-        <v>844.843903096232</v>
+        <v>844.8439030962315</v>
       </c>
       <c r="L11" t="n">
-        <v>1638.644317482091</v>
+        <v>1638.64431748209</v>
       </c>
       <c r="M11" t="n">
-        <v>2093.48837476678</v>
+        <v>2538.506772924683</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.669732195772</v>
+        <v>3438.297946127757</v>
       </c>
       <c r="O11" t="n">
-        <v>3724.129384147084</v>
+        <v>4242.757598079069</v>
       </c>
       <c r="P11" t="n">
-        <v>4373.042702348161</v>
+        <v>4583.234543101466</v>
       </c>
       <c r="Q11" t="n">
         <v>4783.127819896831</v>
@@ -5118,25 +5118,25 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J12" t="n">
-        <v>167.3040569304509</v>
+        <v>167.3040569304508</v>
       </c>
       <c r="K12" t="n">
-        <v>535.0627614491661</v>
+        <v>628.6710633926956</v>
       </c>
       <c r="L12" t="n">
-        <v>849.7000922989942</v>
+        <v>943.3083942425235</v>
       </c>
       <c r="M12" t="n">
-        <v>1236.223885088867</v>
+        <v>1329.832187032396</v>
       </c>
       <c r="N12" t="n">
-        <v>1647.386457452193</v>
+        <v>1740.994759395722</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.300088837311</v>
+        <v>2094.90839078084</v>
       </c>
       <c r="P12" t="n">
-        <v>2266.01391335749</v>
+        <v>2359.622215301019</v>
       </c>
       <c r="Q12" t="n">
         <v>2601.025413179288</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>764.8985413156454</v>
+        <v>294.5872420982236</v>
       </c>
       <c r="C13" t="n">
-        <v>595.9623583877385</v>
+        <v>125.6510591703166</v>
       </c>
       <c r="D13" t="n">
-        <v>595.9623583877385</v>
+        <v>125.6510591703166</v>
       </c>
       <c r="E13" t="n">
-        <v>595.9623583877385</v>
+        <v>125.6510591703166</v>
       </c>
       <c r="F13" t="n">
-        <v>515.7220418839979</v>
+        <v>125.6510591703166</v>
       </c>
       <c r="G13" t="n">
-        <v>347.8141077691154</v>
+        <v>125.6510591703166</v>
       </c>
       <c r="H13" t="n">
-        <v>199.7734178521529</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="I13" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J13" t="n">
-        <v>127.1906975445497</v>
+        <v>127.1906975445495</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8234703720055</v>
+        <v>307.8234703720053</v>
       </c>
       <c r="L13" t="n">
-        <v>594.4976645070657</v>
+        <v>594.4976645070653</v>
       </c>
       <c r="M13" t="n">
-        <v>907.1445306290203</v>
+        <v>907.14453062902</v>
       </c>
       <c r="N13" t="n">
-        <v>1217.791969496554</v>
+        <v>1217.791969496553</v>
       </c>
       <c r="O13" t="n">
         <v>1488.708863521204</v>
@@ -5218,31 +5218,31 @@
         <v>1697.004386470092</v>
       </c>
       <c r="Q13" t="n">
-        <v>1757.78232960004</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="R13" t="n">
-        <v>1757.78232960004</v>
+        <v>1658.729943416032</v>
       </c>
       <c r="S13" t="n">
-        <v>1757.78232960004</v>
+        <v>1463.469769355895</v>
       </c>
       <c r="T13" t="n">
-        <v>1757.78232960004</v>
+        <v>1240.826828288033</v>
       </c>
       <c r="U13" t="n">
-        <v>1757.78232960004</v>
+        <v>951.7127742778803</v>
       </c>
       <c r="V13" t="n">
-        <v>1503.097841394153</v>
+        <v>697.0282860719934</v>
       </c>
       <c r="W13" t="n">
-        <v>1213.680671357193</v>
+        <v>697.0282860719934</v>
       </c>
       <c r="X13" t="n">
-        <v>985.6911204591755</v>
+        <v>697.0282860719934</v>
       </c>
       <c r="Y13" t="n">
-        <v>764.8985413156454</v>
+        <v>476.2357069284633</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2397.702401960702</v>
+        <v>2397.702401960703</v>
       </c>
       <c r="C14" t="n">
-        <v>2028.739885020291</v>
+        <v>2028.739885020292</v>
       </c>
       <c r="D14" t="n">
-        <v>1670.474186413541</v>
+        <v>1670.474186413542</v>
       </c>
       <c r="E14" t="n">
-        <v>1284.685933815297</v>
+        <v>1284.685933815298</v>
       </c>
       <c r="F14" t="n">
-        <v>873.7000290256892</v>
+        <v>873.7000290256901</v>
       </c>
       <c r="G14" t="n">
-        <v>458.1703491999433</v>
+        <v>458.1703491999442</v>
       </c>
       <c r="H14" t="n">
-        <v>155.9041454432207</v>
+        <v>155.9041454432205</v>
       </c>
       <c r="I14" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J14" t="n">
-        <v>247.1244892489108</v>
+        <v>247.1244892489111</v>
       </c>
       <c r="K14" t="n">
-        <v>536.4075299175543</v>
+        <v>739.7002915691921</v>
       </c>
       <c r="L14" t="n">
-        <v>1330.207944303413</v>
+        <v>1120.016103550105</v>
       </c>
       <c r="M14" t="n">
-        <v>2230.070399746005</v>
+        <v>2019.878558992698</v>
       </c>
       <c r="N14" t="n">
-        <v>3129.861572949078</v>
+        <v>2919.669732195772</v>
       </c>
       <c r="O14" t="n">
-        <v>3934.32122490039</v>
+        <v>3724.129384147084</v>
       </c>
       <c r="P14" t="n">
-        <v>4583.234543101466</v>
+        <v>4373.042702348161</v>
       </c>
       <c r="Q14" t="n">
         <v>4783.127819896831</v>
@@ -5303,25 +5303,25 @@
         <v>4813.994990069626</v>
       </c>
       <c r="S14" t="n">
-        <v>4693.285200474677</v>
+        <v>4693.285200474678</v>
       </c>
       <c r="T14" t="n">
-        <v>4485.305929975224</v>
+        <v>4485.305929975225</v>
       </c>
       <c r="U14" t="n">
-        <v>4231.738874875401</v>
+        <v>4231.738874875402</v>
       </c>
       <c r="V14" t="n">
-        <v>3900.67598753183</v>
+        <v>3900.675987531831</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.907332261716</v>
+        <v>3547.907332261717</v>
       </c>
       <c r="X14" t="n">
-        <v>3174.441574000636</v>
+        <v>3174.441574000637</v>
       </c>
       <c r="Y14" t="n">
-        <v>2784.302242024824</v>
+        <v>2784.302242024825</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H15" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212662</v>
       </c>
       <c r="I15" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J15" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304508</v>
       </c>
       <c r="K15" t="n">
-        <v>628.6710633926953</v>
+        <v>535.0627614491673</v>
       </c>
       <c r="L15" t="n">
-        <v>943.3083942425229</v>
+        <v>849.7000922989952</v>
       </c>
       <c r="M15" t="n">
-        <v>1329.832187032395</v>
+        <v>1236.223885088868</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.994759395721</v>
+        <v>1647.386457452194</v>
       </c>
       <c r="O15" t="n">
-        <v>2094.908390780839</v>
+        <v>2001.300088837312</v>
       </c>
       <c r="P15" t="n">
-        <v>2359.622215301017</v>
+        <v>2266.013913357491</v>
       </c>
       <c r="Q15" t="n">
         <v>2601.025413179288</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>730.1306037544281</v>
+        <v>243.1698472993029</v>
       </c>
       <c r="C16" t="n">
-        <v>561.1944208265212</v>
+        <v>243.1698472993029</v>
       </c>
       <c r="D16" t="n">
-        <v>411.0777814141854</v>
+        <v>243.1698472993029</v>
       </c>
       <c r="E16" t="n">
-        <v>411.0777814141854</v>
+        <v>243.1698472993029</v>
       </c>
       <c r="F16" t="n">
-        <v>264.1878339162751</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="G16" t="n">
         <v>96.27989980139252</v>
@@ -5437,22 +5437,22 @@
         <v>127.1906975445496</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8234703720052</v>
+        <v>307.8234703720054</v>
       </c>
       <c r="L16" t="n">
-        <v>594.4976645070651</v>
+        <v>594.4976645070656</v>
       </c>
       <c r="M16" t="n">
-        <v>907.1445306290195</v>
+        <v>907.1445306290202</v>
       </c>
       <c r="N16" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496554</v>
       </c>
       <c r="O16" t="n">
-        <v>1488.708863521203</v>
+        <v>1488.708863521204</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470092</v>
       </c>
       <c r="Q16" t="n">
         <v>1757.782329600039</v>
@@ -5461,25 +5461,25 @@
         <v>1757.782329600039</v>
       </c>
       <c r="S16" t="n">
-        <v>1757.782329600039</v>
+        <v>1562.522155539902</v>
       </c>
       <c r="T16" t="n">
-        <v>1757.782329600039</v>
+        <v>1339.87921447204</v>
       </c>
       <c r="U16" t="n">
-        <v>1468.668275589886</v>
+        <v>1050.765160461887</v>
       </c>
       <c r="V16" t="n">
-        <v>1213.983787383999</v>
+        <v>796.0806722560002</v>
       </c>
       <c r="W16" t="n">
-        <v>1213.983787383999</v>
+        <v>506.6635022190396</v>
       </c>
       <c r="X16" t="n">
-        <v>985.9942364859814</v>
+        <v>463.962426442833</v>
       </c>
       <c r="Y16" t="n">
-        <v>765.2016573424513</v>
+        <v>243.1698472993029</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2397.702401960703</v>
+        <v>2397.702401960705</v>
       </c>
       <c r="C17" t="n">
-        <v>2028.739885020292</v>
+        <v>2028.739885020293</v>
       </c>
       <c r="D17" t="n">
-        <v>1670.474186413542</v>
+        <v>1670.474186413543</v>
       </c>
       <c r="E17" t="n">
-        <v>1284.685933815298</v>
+        <v>1284.685933815299</v>
       </c>
       <c r="F17" t="n">
-        <v>873.7000290256901</v>
+        <v>873.700029025691</v>
       </c>
       <c r="G17" t="n">
-        <v>458.1703491999442</v>
+        <v>458.170349199944</v>
       </c>
       <c r="H17" t="n">
-        <v>155.9041454432211</v>
+        <v>155.9041454432206</v>
       </c>
       <c r="I17" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J17" t="n">
-        <v>247.1244892489108</v>
+        <v>247.1244892489111</v>
       </c>
       <c r="K17" t="n">
-        <v>844.8439030962311</v>
+        <v>536.407529917552</v>
       </c>
       <c r="L17" t="n">
-        <v>1638.644317482089</v>
+        <v>1330.207944303411</v>
       </c>
       <c r="M17" t="n">
-        <v>2538.506772924682</v>
+        <v>2230.070399746004</v>
       </c>
       <c r="N17" t="n">
-        <v>3438.297946127755</v>
+        <v>3129.861572949078</v>
       </c>
       <c r="O17" t="n">
-        <v>4242.757598079067</v>
+        <v>3934.32122490039</v>
       </c>
       <c r="P17" t="n">
         <v>4583.234543101466</v>
@@ -5543,22 +5543,22 @@
         <v>4693.285200474678</v>
       </c>
       <c r="T17" t="n">
-        <v>4485.305929975225</v>
+        <v>4485.305929975226</v>
       </c>
       <c r="U17" t="n">
-        <v>4231.738874875402</v>
+        <v>4231.738874875403</v>
       </c>
       <c r="V17" t="n">
-        <v>3900.675987531831</v>
+        <v>3900.675987531832</v>
       </c>
       <c r="W17" t="n">
-        <v>3547.907332261717</v>
+        <v>3547.907332261718</v>
       </c>
       <c r="X17" t="n">
-        <v>3174.441574000637</v>
+        <v>3174.441574000638</v>
       </c>
       <c r="Y17" t="n">
-        <v>2784.302242024825</v>
+        <v>2784.302242024827</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H18" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212662</v>
       </c>
       <c r="I18" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J18" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304508</v>
       </c>
       <c r="K18" t="n">
-        <v>535.0627614491688</v>
+        <v>628.6710633926957</v>
       </c>
       <c r="L18" t="n">
-        <v>849.7000922989964</v>
+        <v>943.3083942425237</v>
       </c>
       <c r="M18" t="n">
-        <v>1236.223885088868</v>
+        <v>1329.832187032396</v>
       </c>
       <c r="N18" t="n">
-        <v>1647.386457452195</v>
+        <v>1740.994759395723</v>
       </c>
       <c r="O18" t="n">
-        <v>2001.300088837312</v>
+        <v>2094.90839078084</v>
       </c>
       <c r="P18" t="n">
-        <v>2266.013913357491</v>
+        <v>2359.622215301019</v>
       </c>
       <c r="Q18" t="n">
         <v>2601.025413179288</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>730.6170791075408</v>
+        <v>663.6402381949326</v>
       </c>
       <c r="C19" t="n">
-        <v>730.6170791075408</v>
+        <v>494.7040552670258</v>
       </c>
       <c r="D19" t="n">
-        <v>580.500439695205</v>
+        <v>494.7040552670259</v>
       </c>
       <c r="E19" t="n">
-        <v>559.1184713311479</v>
+        <v>494.7040552670259</v>
       </c>
       <c r="F19" t="n">
-        <v>412.2285238332375</v>
+        <v>347.8141077691155</v>
       </c>
       <c r="G19" t="n">
-        <v>244.320589718355</v>
+        <v>347.8141077691155</v>
       </c>
       <c r="H19" t="n">
-        <v>96.27989980139252</v>
+        <v>199.773417852153</v>
       </c>
       <c r="I19" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J19" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445497</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8234703720052</v>
+        <v>307.8234703720055</v>
       </c>
       <c r="L19" t="n">
-        <v>594.4976645070651</v>
+        <v>594.4976645070656</v>
       </c>
       <c r="M19" t="n">
-        <v>907.1445306290195</v>
+        <v>907.1445306290202</v>
       </c>
       <c r="N19" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496554</v>
       </c>
       <c r="O19" t="n">
-        <v>1488.708863521203</v>
+        <v>1488.708863521205</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470093</v>
       </c>
       <c r="Q19" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.782329600037</v>
       </c>
       <c r="R19" t="n">
-        <v>1658.729943416032</v>
+        <v>1658.72994341603</v>
       </c>
       <c r="S19" t="n">
-        <v>1463.469769355894</v>
+        <v>1463.469769355892</v>
       </c>
       <c r="T19" t="n">
-        <v>1240.826828288033</v>
+        <v>1240.82682828803</v>
       </c>
       <c r="U19" t="n">
-        <v>1240.826828288033</v>
+        <v>1240.82682828803</v>
       </c>
       <c r="V19" t="n">
-        <v>1240.826828288033</v>
+        <v>1181.046959129911</v>
       </c>
       <c r="W19" t="n">
-        <v>951.4096582510723</v>
+        <v>891.62978909295</v>
       </c>
       <c r="X19" t="n">
-        <v>951.4096582510723</v>
+        <v>663.6402381949326</v>
       </c>
       <c r="Y19" t="n">
-        <v>730.6170791075408</v>
+        <v>663.6402381949326</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2397.702401960704</v>
+        <v>2397.702401960703</v>
       </c>
       <c r="C20" t="n">
         <v>2028.739885020292</v>
@@ -5738,37 +5738,37 @@
         <v>1284.685933815298</v>
       </c>
       <c r="F20" t="n">
-        <v>873.7000290256901</v>
+        <v>873.7000290256899</v>
       </c>
       <c r="G20" t="n">
-        <v>458.1703491999443</v>
+        <v>458.170349199944</v>
       </c>
       <c r="H20" t="n">
-        <v>155.9041454432207</v>
+        <v>155.9041454432205</v>
       </c>
       <c r="I20" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J20" t="n">
-        <v>247.1244892489108</v>
+        <v>247.1244892489111</v>
       </c>
       <c r="K20" t="n">
-        <v>523.939944650778</v>
+        <v>523.9399446507787</v>
       </c>
       <c r="L20" t="n">
-        <v>1317.740359036636</v>
+        <v>1317.740359036638</v>
       </c>
       <c r="M20" t="n">
-        <v>2217.602814479229</v>
+        <v>2217.60281447923</v>
       </c>
       <c r="N20" t="n">
-        <v>3117.393987682302</v>
+        <v>3117.393987682304</v>
       </c>
       <c r="O20" t="n">
-        <v>3921.853639633614</v>
+        <v>3921.853639633616</v>
       </c>
       <c r="P20" t="n">
-        <v>4570.76695783469</v>
+        <v>4570.766957834693</v>
       </c>
       <c r="Q20" t="n">
         <v>4783.127819896831</v>
@@ -5777,25 +5777,25 @@
         <v>4813.994990069626</v>
       </c>
       <c r="S20" t="n">
-        <v>4693.285200474678</v>
+        <v>4693.285200474677</v>
       </c>
       <c r="T20" t="n">
-        <v>4485.305929975226</v>
+        <v>4485.305929975225</v>
       </c>
       <c r="U20" t="n">
-        <v>4231.738874875403</v>
+        <v>4231.738874875402</v>
       </c>
       <c r="V20" t="n">
-        <v>3900.675987531832</v>
+        <v>3900.675987531831</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.907332261718</v>
+        <v>3547.907332261717</v>
       </c>
       <c r="X20" t="n">
-        <v>3174.441574000638</v>
+        <v>3174.441574000637</v>
       </c>
       <c r="Y20" t="n">
-        <v>2784.302242024826</v>
+        <v>2784.302242024825</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H21" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212662</v>
       </c>
       <c r="I21" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J21" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304508</v>
       </c>
       <c r="K21" t="n">
-        <v>628.6710633926953</v>
+        <v>366.8504787502428</v>
       </c>
       <c r="L21" t="n">
-        <v>943.3083942425229</v>
+        <v>681.4878096000707</v>
       </c>
       <c r="M21" t="n">
-        <v>1329.832187032395</v>
+        <v>1068.011602389943</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.994759395721</v>
+        <v>1855.362972310684</v>
       </c>
       <c r="O21" t="n">
-        <v>2094.908390780839</v>
+        <v>2209.276603695802</v>
       </c>
       <c r="P21" t="n">
-        <v>2359.622215301017</v>
+        <v>2473.990428215981</v>
       </c>
       <c r="Q21" t="n">
         <v>2601.025413179288</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>878.0436973368211</v>
+        <v>243.1698472993029</v>
       </c>
       <c r="C22" t="n">
-        <v>709.1075144089142</v>
+        <v>243.1698472993029</v>
       </c>
       <c r="D22" t="n">
-        <v>558.9908749965784</v>
+        <v>243.1698472993029</v>
       </c>
       <c r="E22" t="n">
-        <v>411.0777814141854</v>
+        <v>243.1698472993029</v>
       </c>
       <c r="F22" t="n">
-        <v>264.1878339162751</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="G22" t="n">
         <v>96.27989980139252</v>
@@ -5908,52 +5908,52 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J22" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445497</v>
       </c>
       <c r="K22" t="n">
         <v>307.8234703720054</v>
       </c>
       <c r="L22" t="n">
-        <v>594.4976645070653</v>
+        <v>594.4976645070656</v>
       </c>
       <c r="M22" t="n">
-        <v>907.1445306290198</v>
+        <v>907.1445306290201</v>
       </c>
       <c r="N22" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496554</v>
       </c>
       <c r="O22" t="n">
         <v>1488.708863521204</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470092</v>
       </c>
       <c r="Q22" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="R22" t="n">
-        <v>1658.729943416032</v>
+        <v>1722.27822557832</v>
       </c>
       <c r="S22" t="n">
-        <v>1463.469769355894</v>
+        <v>1527.018051518182</v>
       </c>
       <c r="T22" t="n">
-        <v>1463.469769355894</v>
+        <v>1304.375110450321</v>
       </c>
       <c r="U22" t="n">
-        <v>1463.469769355894</v>
+        <v>1015.261056440168</v>
       </c>
       <c r="V22" t="n">
-        <v>1463.469769355894</v>
+        <v>760.5765682342809</v>
       </c>
       <c r="W22" t="n">
-        <v>1463.469769355894</v>
+        <v>471.1593981973203</v>
       </c>
       <c r="X22" t="n">
-        <v>1235.480218457877</v>
+        <v>243.1698472993029</v>
       </c>
       <c r="Y22" t="n">
-        <v>1059.692162167061</v>
+        <v>243.1698472993029</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2397.702401960703</v>
+        <v>2397.702401960704</v>
       </c>
       <c r="C23" t="n">
         <v>2028.739885020292</v>
@@ -5975,64 +5975,64 @@
         <v>1284.685933815298</v>
       </c>
       <c r="F23" t="n">
-        <v>873.7000290256901</v>
+        <v>873.70002902569</v>
       </c>
       <c r="G23" t="n">
-        <v>458.1703491999442</v>
+        <v>458.1703491999441</v>
       </c>
       <c r="H23" t="n">
-        <v>155.9041454432207</v>
+        <v>155.9041454432206</v>
       </c>
       <c r="I23" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J23" t="n">
-        <v>247.1244892489108</v>
+        <v>247.1244892489111</v>
       </c>
       <c r="K23" t="n">
-        <v>844.8439030962311</v>
+        <v>536.407529917552</v>
       </c>
       <c r="L23" t="n">
-        <v>1225.159715077144</v>
+        <v>1330.207944303411</v>
       </c>
       <c r="M23" t="n">
-        <v>1954.819303318447</v>
+        <v>2230.070399746004</v>
       </c>
       <c r="N23" t="n">
-        <v>2854.61047652152</v>
+        <v>3129.861572949078</v>
       </c>
       <c r="O23" t="n">
-        <v>3659.070128472832</v>
+        <v>3934.32122490039</v>
       </c>
       <c r="P23" t="n">
-        <v>4307.983446673908</v>
+        <v>4583.234543101466</v>
       </c>
       <c r="Q23" t="n">
-        <v>4718.068564222579</v>
+        <v>4783.127819896831</v>
       </c>
       <c r="R23" t="n">
         <v>4813.994990069626</v>
       </c>
       <c r="S23" t="n">
-        <v>4693.285200474677</v>
+        <v>4693.285200474678</v>
       </c>
       <c r="T23" t="n">
-        <v>4485.305929975225</v>
+        <v>4485.305929975226</v>
       </c>
       <c r="U23" t="n">
-        <v>4231.738874875402</v>
+        <v>4231.738874875403</v>
       </c>
       <c r="V23" t="n">
-        <v>3900.675987531831</v>
+        <v>3900.675987531832</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.907332261717</v>
+        <v>3547.907332261718</v>
       </c>
       <c r="X23" t="n">
-        <v>3174.441574000637</v>
+        <v>3174.441574000638</v>
       </c>
       <c r="Y23" t="n">
-        <v>2784.302242024825</v>
+        <v>2784.302242024826</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H24" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212662</v>
       </c>
       <c r="I24" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J24" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304508</v>
       </c>
       <c r="K24" t="n">
-        <v>628.6710633926953</v>
+        <v>535.0627614491673</v>
       </c>
       <c r="L24" t="n">
-        <v>943.3083942425229</v>
+        <v>849.7000922989952</v>
       </c>
       <c r="M24" t="n">
-        <v>1329.832187032395</v>
+        <v>1236.223885088868</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.994759395721</v>
+        <v>1647.386457452194</v>
       </c>
       <c r="O24" t="n">
-        <v>2094.908390780839</v>
+        <v>2001.300088837312</v>
       </c>
       <c r="P24" t="n">
-        <v>2359.622215301017</v>
+        <v>2266.013913357491</v>
       </c>
       <c r="Q24" t="n">
         <v>2601.025413179288</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>583.250076485404</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="C25" t="n">
-        <v>414.3138935574971</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="D25" t="n">
-        <v>264.1972541451611</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="E25" t="n">
-        <v>264.1972541451611</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="F25" t="n">
-        <v>244.320589718355</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="G25" t="n">
-        <v>244.320589718355</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="H25" t="n">
         <v>96.27989980139252</v>
@@ -6145,52 +6145,52 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J25" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445497</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8234703720052</v>
+        <v>307.8234703720054</v>
       </c>
       <c r="L25" t="n">
-        <v>594.4976645070651</v>
+        <v>594.4976645070656</v>
       </c>
       <c r="M25" t="n">
-        <v>907.1445306290195</v>
+        <v>907.1445306290202</v>
       </c>
       <c r="N25" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496554</v>
       </c>
       <c r="O25" t="n">
-        <v>1488.708863521203</v>
+        <v>1488.708863521204</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470092</v>
       </c>
       <c r="Q25" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="R25" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="S25" t="n">
-        <v>1757.782329600039</v>
+        <v>1562.522155539903</v>
       </c>
       <c r="T25" t="n">
-        <v>1757.782329600039</v>
+        <v>1378.277742095941</v>
       </c>
       <c r="U25" t="n">
-        <v>1757.782329600039</v>
+        <v>1089.163688085787</v>
       </c>
       <c r="V25" t="n">
-        <v>1503.097841394152</v>
+        <v>834.4791998799005</v>
       </c>
       <c r="W25" t="n">
-        <v>1213.680671357191</v>
+        <v>545.06202984294</v>
       </c>
       <c r="X25" t="n">
-        <v>985.6911204591738</v>
+        <v>317.0724789449226</v>
       </c>
       <c r="Y25" t="n">
-        <v>764.8985413156437</v>
+        <v>96.27989980139252</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>242.4509819463048</v>
+        <v>472.0994283734972</v>
       </c>
       <c r="C28" t="n">
-        <v>242.4509819463048</v>
+        <v>343.0033510423848</v>
       </c>
       <c r="D28" t="n">
-        <v>242.4509819463048</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1937.890136708704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1746.20425253553</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1524.437637105056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1235.3347702307</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>980.6502820248128</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W28" t="n">
-        <v>691.2331119878522</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X28" t="n">
-        <v>463.2435610898349</v>
+        <v>874.540472347267</v>
       </c>
       <c r="Y28" t="n">
-        <v>242.4509819463048</v>
+        <v>653.7478932037369</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924161</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.86673817257</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844494</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903276</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6537,7 +6537,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6546,7 +6546,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264.4972173763013</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,7 +6634,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1949.898952795766</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1949.898952795766</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1728.132337365293</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1439.029470490936</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1184.344982285049</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>894.9278122480885</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>666.9382613500711</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>446.145682206541</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1070.832524924161</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844494</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903276</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193585</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6789,28 +6789,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>489.8932985402951</v>
+        <v>270.9417306852388</v>
       </c>
       <c r="C34" t="n">
-        <v>489.8932985402951</v>
+        <v>102.0055477573318</v>
       </c>
       <c r="D34" t="n">
-        <v>339.7766591279594</v>
+        <v>102.0055477573318</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7766591279594</v>
+        <v>102.0055477573318</v>
       </c>
       <c r="F34" t="n">
-        <v>192.8867116300491</v>
+        <v>102.0055477573318</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6862,46 +6862,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N34" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1664.42555165493</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1664.42555165493</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>1409.741063449043</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>1120.323893412082</v>
+        <v>901.3723255570259</v>
       </c>
       <c r="X34" t="n">
-        <v>892.3343425140649</v>
+        <v>673.3827746590085</v>
       </c>
       <c r="Y34" t="n">
-        <v>671.5417633705348</v>
+        <v>452.5901955154785</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6962,19 +6962,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7014,7 +7014,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,7 +7044,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7053,13 +7053,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C37" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7114,16 +7114,16 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R37" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T37" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U37" t="n">
         <v>1725.799256195774</v>
@@ -7132,13 +7132,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036717</v>
       </c>
     </row>
     <row r="38">
@@ -7199,10 +7199,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
@@ -7242,10 +7242,10 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K40" t="n">
         <v>437.6816203490197</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3517.878731871642</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4231.233819318588</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4689.712021827576</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7506,22 +7506,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
         <v>244.2046325160447</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490194</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7597,7 +7597,7 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U43" t="n">
         <v>1725.799256195773</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="44">
@@ -7640,34 +7640,34 @@
         <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811482</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542189</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
@@ -7728,22 +7728,22 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193577</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320232</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
         <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932522</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819758</v>
@@ -7807,31 +7807,31 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499226</v>
+        <v>800.746804049922</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036719</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,19 +8696,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>362.9935751452344</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>10.24681607180673</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>169.911396665579</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>115.5234473888512</v>
       </c>
       <c r="R12" t="n">
-        <v>15.18012378356329</v>
+        <v>15.18012378356332</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>12.5935204714911</v>
+        <v>217.9397443620339</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>169.9113966655804</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>115.5234473888528</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>15.1801237835634</v>
+        <v>15.18012378356332</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>12.59352047148826</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>10.24681607180889</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>169.9113966655822</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>115.5234473888503</v>
       </c>
       <c r="R18" t="n">
-        <v>15.1801237835634</v>
+        <v>15.18012378356332</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>12.59352047149108</v>
+        <v>12.59352047148803</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>379.9886844014291</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>115.5234473888528</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>15.1801237835634</v>
+        <v>15.18012378356332</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>12.59352047148826</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>277.5914454107224</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9656,10 +9656,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>169.9113966655802</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>115.5234473888528</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>15.1801237835634</v>
+        <v>15.18012378356332</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>288.0478149561023</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>297.8289162490807</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10130,10 +10130,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>288.0478149561023</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>29.61882225792191</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476826</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>65.98313468422809</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.482835242558</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.0618623221668</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>193.3075723195359</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.4165116571834</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2229134700513</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.1116371297942</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H16" t="n">
         <v>146.5602830177929</v>
       </c>
       <c r="I16" t="n">
-        <v>102.4585828702529</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.06186232216687</v>
+        <v>98.06186232216683</v>
       </c>
       <c r="S16" t="n">
-        <v>193.307572319536</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.4165116571834</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>183.4355903705926</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>125.2658139661526</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>102.4585828702529</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>286.2229134700513</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>192.9555728572896</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H22" t="n">
         <v>146.5602830177929</v>
       </c>
       <c r="I22" t="n">
-        <v>102.4585828702529</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>62.91279934066407</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.4165116571834</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2229134700513</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.55447762418684</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>125.7431502403932</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.2288547737337</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.5602830177929</v>
       </c>
       <c r="I25" t="n">
-        <v>102.4585828702529</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.06186232216687</v>
+        <v>98.06186232216683</v>
       </c>
       <c r="S25" t="n">
-        <v>193.307572319536</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.4165116571834</v>
+        <v>38.01454234766101</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2229134700513</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>39.44170454082658</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>70.66335656800743</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.55208449419941</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>159.6457400831802</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>209.2513919723824</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1129766.267311743</v>
+        <v>1129766.267311742</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1129766.267311742</v>
+        <v>1129766.267311743</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1129766.267311742</v>
+        <v>1129766.267311743</v>
       </c>
     </row>
     <row r="10">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>287364.6194524995</v>
+      </c>
+      <c r="C2" t="n">
         <v>287364.6194524994</v>
       </c>
-      <c r="C2" t="n">
-        <v>287364.6194524996</v>
-      </c>
       <c r="D2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
+        <v>276118.08280598</v>
+      </c>
+      <c r="F2" t="n">
         <v>276118.0828059802</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>276118.08280598</v>
-      </c>
-      <c r="G2" t="n">
-        <v>276118.0828059802</v>
       </c>
       <c r="H2" t="n">
         <v>276118.0828059801</v>
       </c>
       <c r="I2" t="n">
-        <v>276118.08280598</v>
+        <v>276118.0828059802</v>
       </c>
       <c r="J2" t="n">
-        <v>277957.2508208882</v>
+        <v>277957.2508208881</v>
       </c>
       <c r="K2" t="n">
-        <v>277957.2508208882</v>
+        <v>277957.2508208883</v>
       </c>
       <c r="L2" t="n">
-        <v>277957.2508208882</v>
+        <v>277957.2508208881</v>
       </c>
       <c r="M2" t="n">
         <v>287364.6194524994</v>
@@ -26353,7 +26353,7 @@
         <v>287364.6194524994</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524994</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>639598.3910328825</v>
+        <v>639598.3910328823</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>257371.5071467813</v>
+        <v>257371.5071467808</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>169461.7256516756</v>
+        <v>169461.7256516755</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.857912815874442e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>26084.25031398454</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26084.25031398453</v>
+      </c>
+      <c r="G4" t="n">
         <v>26084.25031398451</v>
       </c>
-      <c r="F4" t="n">
-        <v>26084.25031398457</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>26084.25031398452</v>
+      </c>
+      <c r="I4" t="n">
         <v>26084.25031398453</v>
       </c>
-      <c r="H4" t="n">
-        <v>26084.25031398457</v>
-      </c>
-      <c r="I4" t="n">
-        <v>26084.25031398457</v>
-      </c>
       <c r="J4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="K4" t="n">
-        <v>18148.49231918993</v>
-      </c>
       <c r="L4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740901</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>94475.208146944</v>
+        <v>94475.20814694399</v>
       </c>
       <c r="F5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.20814694399</v>
       </c>
       <c r="G5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.20814694399</v>
       </c>
       <c r="H5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.20814694399</v>
       </c>
       <c r="I5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.20814694399</v>
       </c>
       <c r="J5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="K5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-568811.0246825825</v>
+        <v>-568811.0246825824</v>
       </c>
       <c r="C6" t="n">
-        <v>21156.85453196216</v>
+        <v>21156.85453196202</v>
       </c>
       <c r="D6" t="n">
-        <v>21156.85453196193</v>
+        <v>21156.8545319619</v>
       </c>
       <c r="E6" t="n">
-        <v>-484039.7666878309</v>
+        <v>-484120.0990924488</v>
       </c>
       <c r="F6" t="n">
-        <v>155558.6243450521</v>
+        <v>155478.2919404337</v>
       </c>
       <c r="G6" t="n">
-        <v>155558.6243450517</v>
+        <v>155478.2919404335</v>
       </c>
       <c r="H6" t="n">
-        <v>155558.6243450515</v>
+        <v>155478.2919404336</v>
       </c>
       <c r="I6" t="n">
-        <v>155558.6243450514</v>
+        <v>155478.2919404336</v>
       </c>
       <c r="J6" t="n">
-        <v>-93946.2668987967</v>
+        <v>-94013.46238902198</v>
       </c>
       <c r="K6" t="n">
-        <v>163425.2402479846</v>
+        <v>163358.0447577588</v>
       </c>
       <c r="L6" t="n">
-        <v>163425.2402479846</v>
+        <v>163358.0447577587</v>
       </c>
       <c r="M6" t="n">
-        <v>-16035.43051068729</v>
+        <v>-16035.43051068718</v>
       </c>
       <c r="N6" t="n">
-        <v>153426.2951409883</v>
+        <v>153426.2951409884</v>
       </c>
       <c r="O6" t="n">
         <v>153426.2951409883</v>
       </c>
       <c r="P6" t="n">
-        <v>153426.295140988</v>
+        <v>153426.2951409883</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26744,19 +26744,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>977.1781788020957</v>
+        <v>977.1781788020953</v>
       </c>
       <c r="F3" t="n">
-        <v>977.1781788020947</v>
+        <v>977.1781788020953</v>
       </c>
       <c r="G3" t="n">
-        <v>977.1781788020947</v>
+        <v>977.1781788020954</v>
       </c>
       <c r="H3" t="n">
-        <v>977.1781788020947</v>
+        <v>977.1781788020954</v>
       </c>
       <c r="I3" t="n">
-        <v>977.1781788020947</v>
+        <v>977.1781788020954</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>599.4345145850091</v>
+        <v>599.4345145850087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>112.5985217912036</v>
+        <v>112.5985217912029</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>665.3014558420795</v>
+        <v>665.3014558420793</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.211474762851</v>
+        <v>529.2114747628508</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>333.0830840593253</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>379.9586137498002</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10.24234275801402</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>11.35916098709259</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>310.3987250757999</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>200.5295822554859</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>272.4729725277061</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>95.7551445533918</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>95.16589352978389</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>123.9289676594881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>242.3472027101784</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-4.192202140984591e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-3.880510727564494e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.928354487646613</v>
+        <v>3.928354487646611</v>
       </c>
       <c r="H11" t="n">
-        <v>40.23126039661089</v>
+        <v>40.23126039661087</v>
       </c>
       <c r="I11" t="n">
-        <v>151.4478863849962</v>
+        <v>151.4478863849961</v>
       </c>
       <c r="J11" t="n">
-        <v>333.414176695897</v>
+        <v>333.4141766958969</v>
       </c>
       <c r="K11" t="n">
-        <v>499.7014221579782</v>
+        <v>499.701422157978</v>
       </c>
       <c r="L11" t="n">
-        <v>619.9238008092934</v>
+        <v>619.9238008092932</v>
       </c>
       <c r="M11" t="n">
-        <v>689.7846749289788</v>
+        <v>689.7846749289786</v>
       </c>
       <c r="N11" t="n">
-        <v>700.9461121170048</v>
+        <v>700.9461121170045</v>
       </c>
       <c r="O11" t="n">
-        <v>661.8835371804687</v>
+        <v>661.8835371804685</v>
       </c>
       <c r="P11" t="n">
-        <v>564.9022857666929</v>
+        <v>564.9022857666927</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2180906778485</v>
+        <v>424.2180906778483</v>
       </c>
       <c r="R11" t="n">
-        <v>246.7644975846318</v>
+        <v>246.7644975846317</v>
       </c>
       <c r="S11" t="n">
-        <v>89.51737788724728</v>
+        <v>89.51737788724725</v>
       </c>
       <c r="T11" t="n">
-        <v>17.19637176967306</v>
+        <v>17.19637176967305</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3142683590117289</v>
+        <v>0.3142683590117288</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.101854950630923</v>
+        <v>2.101854950630922</v>
       </c>
       <c r="H12" t="n">
-        <v>20.29949386530392</v>
+        <v>20.29949386530391</v>
       </c>
       <c r="I12" t="n">
-        <v>72.36649720374011</v>
+        <v>72.3664972037401</v>
       </c>
       <c r="J12" t="n">
-        <v>198.5791995243014</v>
+        <v>198.5791995243013</v>
       </c>
       <c r="K12" t="n">
-        <v>339.4034812165732</v>
+        <v>339.4034812165731</v>
       </c>
       <c r="L12" t="n">
-        <v>456.3698654867712</v>
+        <v>456.3698654867711</v>
       </c>
       <c r="M12" t="n">
-        <v>532.562107447142</v>
+        <v>532.5621074471419</v>
       </c>
       <c r="N12" t="n">
-        <v>546.6574417432591</v>
+        <v>546.657441743259</v>
       </c>
       <c r="O12" t="n">
-        <v>500.0847609950687</v>
+        <v>500.0847609950685</v>
       </c>
       <c r="P12" t="n">
-        <v>401.3621089498646</v>
+        <v>401.3621089498644</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.2999407156245</v>
+        <v>268.2999407156244</v>
       </c>
       <c r="R12" t="n">
-        <v>130.4993801804007</v>
+        <v>130.4993801804006</v>
       </c>
       <c r="S12" t="n">
-        <v>39.04103384176295</v>
+        <v>39.04103384176293</v>
       </c>
       <c r="T12" t="n">
-        <v>8.471950436972882</v>
+        <v>8.471950436972881</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1382799309625608</v>
+        <v>0.1382799309625607</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,43 +31914,43 @@
         <v>15.66688948964672</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99189205700546</v>
+        <v>52.99189205700544</v>
       </c>
       <c r="J13" t="n">
-        <v>124.5822081400639</v>
+        <v>124.5822081400638</v>
       </c>
       <c r="K13" t="n">
-        <v>204.7268381162423</v>
+        <v>204.7268381162422</v>
       </c>
       <c r="L13" t="n">
-        <v>261.9798678054012</v>
+        <v>261.9798678054011</v>
       </c>
       <c r="M13" t="n">
-        <v>276.2210383128612</v>
+        <v>276.2210383128611</v>
       </c>
       <c r="N13" t="n">
-        <v>269.6531194061588</v>
+        <v>269.6531194061587</v>
       </c>
       <c r="O13" t="n">
-        <v>249.0683003936883</v>
+        <v>249.0683003936882</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1209588652963</v>
+        <v>213.1209588652962</v>
       </c>
       <c r="Q13" t="n">
         <v>147.5539049991164</v>
       </c>
       <c r="R13" t="n">
-        <v>79.23152905500268</v>
+        <v>79.23152905500265</v>
       </c>
       <c r="S13" t="n">
-        <v>30.70902571743634</v>
+        <v>30.70902571743633</v>
       </c>
       <c r="T13" t="n">
-        <v>7.529077771098112</v>
+        <v>7.529077771098109</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09611588643955049</v>
+        <v>0.09611588643955046</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646611</v>
       </c>
       <c r="H14" t="n">
-        <v>40.23126039661084</v>
+        <v>40.23126039661087</v>
       </c>
       <c r="I14" t="n">
         <v>151.4478863849961</v>
       </c>
       <c r="J14" t="n">
-        <v>333.4141766958967</v>
+        <v>333.4141766958969</v>
       </c>
       <c r="K14" t="n">
-        <v>499.7014221579777</v>
+        <v>499.701422157978</v>
       </c>
       <c r="L14" t="n">
-        <v>619.9238008092927</v>
+        <v>619.9238008092932</v>
       </c>
       <c r="M14" t="n">
-        <v>689.7846749289781</v>
+        <v>689.7846749289786</v>
       </c>
       <c r="N14" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170045</v>
       </c>
       <c r="O14" t="n">
-        <v>661.8835371804681</v>
+        <v>661.8835371804685</v>
       </c>
       <c r="P14" t="n">
-        <v>564.9022857666923</v>
+        <v>564.9022857666927</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2180906778481</v>
+        <v>424.2180906778483</v>
       </c>
       <c r="R14" t="n">
-        <v>246.7644975846315</v>
+        <v>246.7644975846317</v>
       </c>
       <c r="S14" t="n">
-        <v>89.51737788724719</v>
+        <v>89.51737788724725</v>
       </c>
       <c r="T14" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967305</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117288</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630922</v>
       </c>
       <c r="H15" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530391</v>
       </c>
       <c r="I15" t="n">
-        <v>72.36649720374005</v>
+        <v>72.3664972037401</v>
       </c>
       <c r="J15" t="n">
-        <v>198.5791995243012</v>
+        <v>198.5791995243013</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165731</v>
       </c>
       <c r="L15" t="n">
-        <v>456.3698654867708</v>
+        <v>456.3698654867711</v>
       </c>
       <c r="M15" t="n">
-        <v>532.5621074471416</v>
+        <v>532.5621074471419</v>
       </c>
       <c r="N15" t="n">
-        <v>546.6574417432587</v>
+        <v>546.657441743259</v>
       </c>
       <c r="O15" t="n">
-        <v>500.0847609950682</v>
+        <v>500.0847609950685</v>
       </c>
       <c r="P15" t="n">
-        <v>401.3621089498642</v>
+        <v>401.3621089498644</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.2999407156242</v>
+        <v>268.2999407156244</v>
       </c>
       <c r="R15" t="n">
-        <v>130.4993801804005</v>
+        <v>130.4993801804006</v>
       </c>
       <c r="S15" t="n">
-        <v>39.04103384176291</v>
+        <v>39.04103384176293</v>
       </c>
       <c r="T15" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972881</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1382799309625606</v>
+        <v>0.1382799309625607</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.762124584725089</v>
+        <v>1.76212458472509</v>
       </c>
       <c r="H16" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964672</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99189205700541</v>
+        <v>52.99189205700544</v>
       </c>
       <c r="J16" t="n">
         <v>124.5822081400638</v>
       </c>
       <c r="K16" t="n">
-        <v>204.7268381162421</v>
+        <v>204.7268381162422</v>
       </c>
       <c r="L16" t="n">
-        <v>261.9798678054009</v>
+        <v>261.9798678054011</v>
       </c>
       <c r="M16" t="n">
-        <v>276.2210383128609</v>
+        <v>276.2210383128611</v>
       </c>
       <c r="N16" t="n">
-        <v>269.6531194061585</v>
+        <v>269.6531194061587</v>
       </c>
       <c r="O16" t="n">
-        <v>249.0683003936881</v>
+        <v>249.0683003936882</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652962</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991164</v>
       </c>
       <c r="R16" t="n">
-        <v>79.23152905500261</v>
+        <v>79.23152905500265</v>
       </c>
       <c r="S16" t="n">
-        <v>30.70902571743631</v>
+        <v>30.70902571743633</v>
       </c>
       <c r="T16" t="n">
-        <v>7.529077771098104</v>
+        <v>7.529077771098109</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09611588643955041</v>
+        <v>0.09611588643955046</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646612</v>
       </c>
       <c r="H17" t="n">
-        <v>40.23126039661084</v>
+        <v>40.23126039661087</v>
       </c>
       <c r="I17" t="n">
         <v>151.4478863849961</v>
       </c>
       <c r="J17" t="n">
-        <v>333.4141766958967</v>
+        <v>333.4141766958969</v>
       </c>
       <c r="K17" t="n">
-        <v>499.7014221579777</v>
+        <v>499.7014221579781</v>
       </c>
       <c r="L17" t="n">
-        <v>619.9238008092927</v>
+        <v>619.9238008092932</v>
       </c>
       <c r="M17" t="n">
-        <v>689.7846749289781</v>
+        <v>689.7846749289786</v>
       </c>
       <c r="N17" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170046</v>
       </c>
       <c r="O17" t="n">
-        <v>661.8835371804681</v>
+        <v>661.8835371804686</v>
       </c>
       <c r="P17" t="n">
-        <v>564.9022857666923</v>
+        <v>564.9022857666928</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2180906778481</v>
+        <v>424.2180906778484</v>
       </c>
       <c r="R17" t="n">
-        <v>246.7644975846315</v>
+        <v>246.7644975846317</v>
       </c>
       <c r="S17" t="n">
-        <v>89.51737788724719</v>
+        <v>89.51737788724725</v>
       </c>
       <c r="T17" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967305</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117289</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630922</v>
       </c>
       <c r="H18" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530391</v>
       </c>
       <c r="I18" t="n">
-        <v>72.36649720374005</v>
+        <v>72.3664972037401</v>
       </c>
       <c r="J18" t="n">
-        <v>198.5791995243012</v>
+        <v>198.5791995243013</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165731</v>
       </c>
       <c r="L18" t="n">
-        <v>456.3698654867708</v>
+        <v>456.3698654867711</v>
       </c>
       <c r="M18" t="n">
-        <v>532.5621074471416</v>
+        <v>532.5621074471419</v>
       </c>
       <c r="N18" t="n">
-        <v>546.6574417432587</v>
+        <v>546.657441743259</v>
       </c>
       <c r="O18" t="n">
-        <v>500.0847609950682</v>
+        <v>500.0847609950686</v>
       </c>
       <c r="P18" t="n">
-        <v>401.3621089498642</v>
+        <v>401.3621089498645</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.2999407156242</v>
+        <v>268.2999407156244</v>
       </c>
       <c r="R18" t="n">
-        <v>130.4993801804005</v>
+        <v>130.4993801804006</v>
       </c>
       <c r="S18" t="n">
-        <v>39.04103384176291</v>
+        <v>39.04103384176294</v>
       </c>
       <c r="T18" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972881</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1382799309625606</v>
+        <v>0.1382799309625607</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.762124584725089</v>
+        <v>1.76212458472509</v>
       </c>
       <c r="H19" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964672</v>
       </c>
       <c r="I19" t="n">
-        <v>52.99189205700541</v>
+        <v>52.99189205700545</v>
       </c>
       <c r="J19" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400639</v>
       </c>
       <c r="K19" t="n">
-        <v>204.7268381162421</v>
+        <v>204.7268381162422</v>
       </c>
       <c r="L19" t="n">
-        <v>261.9798678054009</v>
+        <v>261.9798678054012</v>
       </c>
       <c r="M19" t="n">
-        <v>276.2210383128609</v>
+        <v>276.2210383128611</v>
       </c>
       <c r="N19" t="n">
-        <v>269.6531194061585</v>
+        <v>269.6531194061587</v>
       </c>
       <c r="O19" t="n">
-        <v>249.0683003936881</v>
+        <v>249.0683003936882</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652962</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991164</v>
       </c>
       <c r="R19" t="n">
-        <v>79.23152905500261</v>
+        <v>79.23152905500265</v>
       </c>
       <c r="S19" t="n">
-        <v>30.70902571743631</v>
+        <v>30.70902571743633</v>
       </c>
       <c r="T19" t="n">
-        <v>7.529077771098104</v>
+        <v>7.52907777109811</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09611588643955041</v>
+        <v>0.09611588643955048</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646612</v>
       </c>
       <c r="H20" t="n">
-        <v>40.23126039661084</v>
+        <v>40.23126039661087</v>
       </c>
       <c r="I20" t="n">
         <v>151.4478863849961</v>
       </c>
       <c r="J20" t="n">
-        <v>333.4141766958967</v>
+        <v>333.4141766958969</v>
       </c>
       <c r="K20" t="n">
-        <v>499.7014221579777</v>
+        <v>499.7014221579781</v>
       </c>
       <c r="L20" t="n">
-        <v>619.9238008092927</v>
+        <v>619.9238008092932</v>
       </c>
       <c r="M20" t="n">
-        <v>689.7846749289781</v>
+        <v>689.7846749289786</v>
       </c>
       <c r="N20" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170046</v>
       </c>
       <c r="O20" t="n">
-        <v>661.8835371804681</v>
+        <v>661.8835371804686</v>
       </c>
       <c r="P20" t="n">
-        <v>564.9022857666923</v>
+        <v>564.9022857666928</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2180906778481</v>
+        <v>424.2180906778484</v>
       </c>
       <c r="R20" t="n">
-        <v>246.7644975846315</v>
+        <v>246.7644975846317</v>
       </c>
       <c r="S20" t="n">
-        <v>89.51737788724719</v>
+        <v>89.51737788724725</v>
       </c>
       <c r="T20" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967305</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117289</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630922</v>
       </c>
       <c r="H21" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530391</v>
       </c>
       <c r="I21" t="n">
-        <v>72.36649720374005</v>
+        <v>72.3664972037401</v>
       </c>
       <c r="J21" t="n">
-        <v>198.5791995243012</v>
+        <v>198.5791995243013</v>
       </c>
       <c r="K21" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165731</v>
       </c>
       <c r="L21" t="n">
-        <v>456.3698654867708</v>
+        <v>456.3698654867711</v>
       </c>
       <c r="M21" t="n">
-        <v>532.5621074471416</v>
+        <v>532.5621074471419</v>
       </c>
       <c r="N21" t="n">
-        <v>546.6574417432587</v>
+        <v>546.657441743259</v>
       </c>
       <c r="O21" t="n">
-        <v>500.0847609950682</v>
+        <v>500.0847609950686</v>
       </c>
       <c r="P21" t="n">
-        <v>401.3621089498642</v>
+        <v>401.3621089498645</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.2999407156242</v>
+        <v>268.2999407156244</v>
       </c>
       <c r="R21" t="n">
-        <v>130.4993801804005</v>
+        <v>130.4993801804006</v>
       </c>
       <c r="S21" t="n">
-        <v>39.04103384176291</v>
+        <v>39.04103384176294</v>
       </c>
       <c r="T21" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972881</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1382799309625606</v>
+        <v>0.1382799309625607</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.762124584725089</v>
+        <v>1.76212458472509</v>
       </c>
       <c r="H22" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964672</v>
       </c>
       <c r="I22" t="n">
-        <v>52.99189205700541</v>
+        <v>52.99189205700545</v>
       </c>
       <c r="J22" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400639</v>
       </c>
       <c r="K22" t="n">
-        <v>204.7268381162421</v>
+        <v>204.7268381162422</v>
       </c>
       <c r="L22" t="n">
-        <v>261.9798678054009</v>
+        <v>261.9798678054012</v>
       </c>
       <c r="M22" t="n">
-        <v>276.2210383128609</v>
+        <v>276.2210383128611</v>
       </c>
       <c r="N22" t="n">
-        <v>269.6531194061585</v>
+        <v>269.6531194061587</v>
       </c>
       <c r="O22" t="n">
-        <v>249.0683003936881</v>
+        <v>249.0683003936882</v>
       </c>
       <c r="P22" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652962</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991164</v>
       </c>
       <c r="R22" t="n">
-        <v>79.23152905500261</v>
+        <v>79.23152905500265</v>
       </c>
       <c r="S22" t="n">
-        <v>30.70902571743631</v>
+        <v>30.70902571743633</v>
       </c>
       <c r="T22" t="n">
-        <v>7.529077771098104</v>
+        <v>7.52907777109811</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09611588643955041</v>
+        <v>0.09611588643955048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646612</v>
       </c>
       <c r="H23" t="n">
-        <v>40.23126039661084</v>
+        <v>40.23126039661087</v>
       </c>
       <c r="I23" t="n">
         <v>151.4478863849961</v>
       </c>
       <c r="J23" t="n">
-        <v>333.4141766958967</v>
+        <v>333.4141766958969</v>
       </c>
       <c r="K23" t="n">
-        <v>499.7014221579777</v>
+        <v>499.7014221579781</v>
       </c>
       <c r="L23" t="n">
-        <v>619.9238008092927</v>
+        <v>619.9238008092932</v>
       </c>
       <c r="M23" t="n">
-        <v>689.7846749289781</v>
+        <v>689.7846749289786</v>
       </c>
       <c r="N23" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170046</v>
       </c>
       <c r="O23" t="n">
-        <v>661.8835371804681</v>
+        <v>661.8835371804686</v>
       </c>
       <c r="P23" t="n">
-        <v>564.9022857666923</v>
+        <v>564.9022857666928</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.2180906778481</v>
+        <v>424.2180906778484</v>
       </c>
       <c r="R23" t="n">
-        <v>246.7644975846315</v>
+        <v>246.7644975846317</v>
       </c>
       <c r="S23" t="n">
-        <v>89.51737788724719</v>
+        <v>89.51737788724725</v>
       </c>
       <c r="T23" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967305</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117289</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630922</v>
       </c>
       <c r="H24" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530391</v>
       </c>
       <c r="I24" t="n">
-        <v>72.36649720374005</v>
+        <v>72.3664972037401</v>
       </c>
       <c r="J24" t="n">
-        <v>198.5791995243012</v>
+        <v>198.5791995243013</v>
       </c>
       <c r="K24" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165731</v>
       </c>
       <c r="L24" t="n">
-        <v>456.3698654867708</v>
+        <v>456.3698654867711</v>
       </c>
       <c r="M24" t="n">
-        <v>532.5621074471416</v>
+        <v>532.5621074471419</v>
       </c>
       <c r="N24" t="n">
-        <v>546.6574417432587</v>
+        <v>546.657441743259</v>
       </c>
       <c r="O24" t="n">
-        <v>500.0847609950682</v>
+        <v>500.0847609950686</v>
       </c>
       <c r="P24" t="n">
-        <v>401.3621089498642</v>
+        <v>401.3621089498645</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.2999407156242</v>
+        <v>268.2999407156244</v>
       </c>
       <c r="R24" t="n">
-        <v>130.4993801804005</v>
+        <v>130.4993801804006</v>
       </c>
       <c r="S24" t="n">
-        <v>39.04103384176291</v>
+        <v>39.04103384176294</v>
       </c>
       <c r="T24" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972881</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1382799309625606</v>
+        <v>0.1382799309625607</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.762124584725089</v>
+        <v>1.76212458472509</v>
       </c>
       <c r="H25" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964672</v>
       </c>
       <c r="I25" t="n">
-        <v>52.99189205700541</v>
+        <v>52.99189205700545</v>
       </c>
       <c r="J25" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400639</v>
       </c>
       <c r="K25" t="n">
-        <v>204.7268381162421</v>
+        <v>204.7268381162422</v>
       </c>
       <c r="L25" t="n">
-        <v>261.9798678054009</v>
+        <v>261.9798678054012</v>
       </c>
       <c r="M25" t="n">
-        <v>276.2210383128609</v>
+        <v>276.2210383128611</v>
       </c>
       <c r="N25" t="n">
-        <v>269.6531194061585</v>
+        <v>269.6531194061587</v>
       </c>
       <c r="O25" t="n">
-        <v>249.0683003936881</v>
+        <v>249.0683003936882</v>
       </c>
       <c r="P25" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652962</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991164</v>
       </c>
       <c r="R25" t="n">
-        <v>79.23152905500261</v>
+        <v>79.23152905500265</v>
       </c>
       <c r="S25" t="n">
-        <v>30.70902571743631</v>
+        <v>30.70902571743633</v>
       </c>
       <c r="T25" t="n">
-        <v>7.529077771098104</v>
+        <v>7.52907777109811</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09611588643955041</v>
+        <v>0.09611588643955048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353143</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>152.3682721692107</v>
+        <v>152.3682721692106</v>
       </c>
       <c r="K11" t="n">
-        <v>603.7569836841624</v>
+        <v>603.7569836841622</v>
       </c>
       <c r="L11" t="n">
-        <v>801.8186003897566</v>
+        <v>801.8186003897564</v>
       </c>
       <c r="M11" t="n">
-        <v>459.4384417017061</v>
+        <v>908.9519751945384</v>
       </c>
       <c r="N11" t="n">
-        <v>834.5266236656482</v>
+        <v>908.8799729323978</v>
       </c>
       <c r="O11" t="n">
-        <v>812.5855070215273</v>
+        <v>812.5855070215271</v>
       </c>
       <c r="P11" t="n">
-        <v>655.4679981829061</v>
+        <v>343.9161060832299</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.2273914633037</v>
+        <v>201.9124008033988</v>
       </c>
       <c r="R11" t="n">
-        <v>31.17895977049963</v>
+        <v>31.17895977049955</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.74157285763468</v>
+        <v>71.74157285763462</v>
       </c>
       <c r="K12" t="n">
-        <v>371.4734389077932</v>
+        <v>466.0272792547927</v>
       </c>
       <c r="L12" t="n">
-        <v>317.8154857068971</v>
+        <v>317.8154857068969</v>
       </c>
       <c r="M12" t="n">
-        <v>390.4280735251237</v>
+        <v>390.4280735251236</v>
       </c>
       <c r="N12" t="n">
-        <v>415.3157296599259</v>
+        <v>415.3157296599258</v>
       </c>
       <c r="O12" t="n">
-        <v>357.4885165506243</v>
+        <v>357.4885165506241</v>
       </c>
       <c r="P12" t="n">
-        <v>267.3877015355343</v>
+        <v>267.3877015355342</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.3954543654521</v>
+        <v>243.8416140184541</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.22302802339111</v>
+        <v>31.2230280233909</v>
       </c>
       <c r="K13" t="n">
-        <v>182.4573462903594</v>
+        <v>182.4573462903593</v>
       </c>
       <c r="L13" t="n">
-        <v>289.5698930657173</v>
+        <v>289.5698930657172</v>
       </c>
       <c r="M13" t="n">
-        <v>315.8049152747018</v>
+        <v>315.8049152747017</v>
       </c>
       <c r="N13" t="n">
-        <v>313.7852917853874</v>
+        <v>313.7852917853872</v>
       </c>
       <c r="O13" t="n">
         <v>273.6534283077279</v>
       </c>
       <c r="P13" t="n">
-        <v>210.3995181301898</v>
+        <v>210.3995181301897</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.39186174742206</v>
+        <v>61.391861747422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>152.3682721692104</v>
+        <v>152.3682721692106</v>
       </c>
       <c r="K14" t="n">
-        <v>292.2050915844883</v>
+        <v>497.5513154750314</v>
       </c>
       <c r="L14" t="n">
-        <v>801.8186003897559</v>
+        <v>384.157385839306</v>
       </c>
       <c r="M14" t="n">
-        <v>908.9519751945379</v>
+        <v>908.9519751945384</v>
       </c>
       <c r="N14" t="n">
-        <v>908.8799729323974</v>
+        <v>908.8799729323978</v>
       </c>
       <c r="O14" t="n">
-        <v>812.5855070215267</v>
+        <v>812.5855070215271</v>
       </c>
       <c r="P14" t="n">
-        <v>655.4679981829054</v>
+        <v>655.4679981829058</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.9124008033986</v>
+        <v>414.2273914633035</v>
       </c>
       <c r="R14" t="n">
-        <v>31.1789597704994</v>
+        <v>31.17895977049955</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>71.74157285763451</v>
+        <v>71.74157285763462</v>
       </c>
       <c r="K15" t="n">
-        <v>466.0272792547925</v>
+        <v>371.4734389077944</v>
       </c>
       <c r="L15" t="n">
-        <v>317.8154857068967</v>
+        <v>317.8154857068969</v>
       </c>
       <c r="M15" t="n">
-        <v>390.4280735251232</v>
+        <v>390.4280735251236</v>
       </c>
       <c r="N15" t="n">
-        <v>415.3157296599254</v>
+        <v>415.3157296599258</v>
       </c>
       <c r="O15" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506241</v>
       </c>
       <c r="P15" t="n">
-        <v>267.3877015355339</v>
+        <v>267.3877015355342</v>
       </c>
       <c r="Q15" t="n">
-        <v>243.8416140184555</v>
+        <v>338.395454365452</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.223028023391</v>
+        <v>31.22302802339107</v>
       </c>
       <c r="K16" t="n">
-        <v>182.4573462903592</v>
+        <v>182.4573462903593</v>
       </c>
       <c r="L16" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657172</v>
       </c>
       <c r="M16" t="n">
-        <v>315.8049152747015</v>
+        <v>315.8049152747017</v>
       </c>
       <c r="N16" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853872</v>
       </c>
       <c r="O16" t="n">
-        <v>273.6534283077277</v>
+        <v>273.6534283077279</v>
       </c>
       <c r="P16" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301897</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.39186174742191</v>
+        <v>61.391861747422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>152.3682721692104</v>
+        <v>152.3682721692106</v>
       </c>
       <c r="K17" t="n">
-        <v>603.7569836841619</v>
+        <v>292.2050915844858</v>
       </c>
       <c r="L17" t="n">
-        <v>801.8186003897559</v>
+        <v>801.8186003897564</v>
       </c>
       <c r="M17" t="n">
-        <v>908.9519751945379</v>
+        <v>908.9519751945384</v>
       </c>
       <c r="N17" t="n">
-        <v>908.8799729323974</v>
+        <v>908.8799729323979</v>
       </c>
       <c r="O17" t="n">
-        <v>812.5855070215267</v>
+        <v>812.5855070215272</v>
       </c>
       <c r="P17" t="n">
-        <v>343.9161060832317</v>
+        <v>655.4679981829058</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.9124008033986</v>
+        <v>201.9124008033989</v>
       </c>
       <c r="R17" t="n">
-        <v>31.1789597704994</v>
+        <v>31.17895977049957</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>71.74157285763451</v>
+        <v>71.74157285763465</v>
       </c>
       <c r="K18" t="n">
-        <v>371.4734389077961</v>
+        <v>466.0272792547927</v>
       </c>
       <c r="L18" t="n">
-        <v>317.8154857068967</v>
+        <v>317.8154857068969</v>
       </c>
       <c r="M18" t="n">
-        <v>390.4280735251232</v>
+        <v>390.4280735251236</v>
       </c>
       <c r="N18" t="n">
-        <v>415.3157296599254</v>
+        <v>415.3157296599258</v>
       </c>
       <c r="O18" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506241</v>
       </c>
       <c r="P18" t="n">
-        <v>267.3877015355339</v>
+        <v>267.3877015355342</v>
       </c>
       <c r="Q18" t="n">
-        <v>338.3954543654518</v>
+        <v>243.8416140184532</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.223028023391</v>
+        <v>31.22302802339108</v>
       </c>
       <c r="K19" t="n">
-        <v>182.4573462903592</v>
+        <v>182.4573462903594</v>
       </c>
       <c r="L19" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657173</v>
       </c>
       <c r="M19" t="n">
-        <v>315.8049152747015</v>
+        <v>315.8049152747017</v>
       </c>
       <c r="N19" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853874</v>
       </c>
       <c r="O19" t="n">
-        <v>273.6534283077277</v>
+        <v>273.6534283077279</v>
       </c>
       <c r="P19" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301897</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.39186174742191</v>
+        <v>61.39186174741815</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>152.3682721692104</v>
+        <v>152.3682721692106</v>
       </c>
       <c r="K20" t="n">
-        <v>279.6115711129972</v>
+        <v>279.6115711129975</v>
       </c>
       <c r="L20" t="n">
-        <v>801.8186003897559</v>
+        <v>801.8186003897564</v>
       </c>
       <c r="M20" t="n">
-        <v>908.9519751945379</v>
+        <v>908.9519751945384</v>
       </c>
       <c r="N20" t="n">
-        <v>908.8799729323974</v>
+        <v>908.8799729323979</v>
       </c>
       <c r="O20" t="n">
-        <v>812.5855070215267</v>
+        <v>812.5855070215272</v>
       </c>
       <c r="P20" t="n">
-        <v>655.4679981829054</v>
+        <v>655.4679981829058</v>
       </c>
       <c r="Q20" t="n">
-        <v>214.5059212748897</v>
+        <v>214.5059212748869</v>
       </c>
       <c r="R20" t="n">
-        <v>31.1789597704994</v>
+        <v>31.17895977049957</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>71.74157285763451</v>
+        <v>71.74157285763465</v>
       </c>
       <c r="K21" t="n">
-        <v>466.0272792547925</v>
+        <v>201.5620422422141</v>
       </c>
       <c r="L21" t="n">
-        <v>317.8154857068967</v>
+        <v>317.8154857068969</v>
       </c>
       <c r="M21" t="n">
-        <v>390.4280735251232</v>
+        <v>390.4280735251236</v>
       </c>
       <c r="N21" t="n">
-        <v>415.3157296599254</v>
+        <v>795.3044140613548</v>
       </c>
       <c r="O21" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506241</v>
       </c>
       <c r="P21" t="n">
-        <v>267.3877015355339</v>
+        <v>267.3877015355342</v>
       </c>
       <c r="Q21" t="n">
-        <v>243.8416140184555</v>
+        <v>128.3181666296029</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.223028023391</v>
+        <v>31.22302802339108</v>
       </c>
       <c r="K22" t="n">
-        <v>182.4573462903592</v>
+        <v>182.4573462903594</v>
       </c>
       <c r="L22" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657173</v>
       </c>
       <c r="M22" t="n">
-        <v>315.8049152747015</v>
+        <v>315.8049152747017</v>
       </c>
       <c r="N22" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853874</v>
       </c>
       <c r="O22" t="n">
-        <v>273.6534283077277</v>
+        <v>273.6534283077279</v>
       </c>
       <c r="P22" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301897</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.39186174742191</v>
+        <v>61.39186174742203</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>152.3682721692104</v>
+        <v>152.3682721692106</v>
       </c>
       <c r="K23" t="n">
-        <v>603.7569836841619</v>
+        <v>292.2050915844858</v>
       </c>
       <c r="L23" t="n">
-        <v>384.1573858393055</v>
+        <v>801.8186003897564</v>
       </c>
       <c r="M23" t="n">
-        <v>737.0298871124278</v>
+        <v>908.9519751945384</v>
       </c>
       <c r="N23" t="n">
-        <v>908.8799729323974</v>
+        <v>908.8799729323979</v>
       </c>
       <c r="O23" t="n">
-        <v>812.5855070215267</v>
+        <v>812.5855070215272</v>
       </c>
       <c r="P23" t="n">
-        <v>655.4679981829054</v>
+        <v>655.4679981829058</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.2273914633033</v>
+        <v>201.9124008033989</v>
       </c>
       <c r="R23" t="n">
-        <v>96.89537964348185</v>
+        <v>31.17895977049957</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>71.74157285763451</v>
+        <v>71.74157285763465</v>
       </c>
       <c r="K24" t="n">
-        <v>466.0272792547925</v>
+        <v>371.4734389077944</v>
       </c>
       <c r="L24" t="n">
-        <v>317.8154857068967</v>
+        <v>317.8154857068969</v>
       </c>
       <c r="M24" t="n">
-        <v>390.4280735251232</v>
+        <v>390.4280735251236</v>
       </c>
       <c r="N24" t="n">
-        <v>415.3157296599254</v>
+        <v>415.3157296599258</v>
       </c>
       <c r="O24" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506241</v>
       </c>
       <c r="P24" t="n">
-        <v>267.3877015355339</v>
+        <v>267.3877015355342</v>
       </c>
       <c r="Q24" t="n">
-        <v>243.8416140184555</v>
+        <v>338.395454365452</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.223028023391</v>
+        <v>31.22302802339108</v>
       </c>
       <c r="K25" t="n">
-        <v>182.4573462903592</v>
+        <v>182.4573462903594</v>
       </c>
       <c r="L25" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657173</v>
       </c>
       <c r="M25" t="n">
-        <v>315.8049152747015</v>
+        <v>315.8049152747017</v>
       </c>
       <c r="N25" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853874</v>
       </c>
       <c r="O25" t="n">
-        <v>273.6534283077277</v>
+        <v>273.6534283077279</v>
       </c>
       <c r="P25" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301897</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.39186174742191</v>
+        <v>61.39186174742203</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>625.2391015115028</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>836.7500320793075</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
@@ -36850,10 +36850,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>625.2391015115028</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37081,7 +37081,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
         <v>347.6333793934838</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
@@ -37701,7 +37701,7 @@
         <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37780,28 +37780,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>89.23202080014663</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609554</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,10 +38184,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
